--- a/Data Analytics/Stock list - lookup.xlsx
+++ b/Data Analytics/Stock list - lookup.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aptec\OneDrive\Desktop\Data Analytics\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aptec\OneDrive\Desktop\Data Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4080" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="(Night-scented) stock list" sheetId="1" r:id="rId1"/>
@@ -451,6 +451,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,14 +466,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,7 +854,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -904,10 +904,10 @@
       <c r="E2" s="15">
         <v>23.99</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -970,12 +970,15 @@
       <c r="G5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="26" t="s">
+      <c r="H5" s="23" t="str">
+        <f>VLOOKUP(H4,A2:B27,2,0)</f>
+        <v>Yellow</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -996,10 +999,13 @@
       <c r="G6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="H6" s="23">
+        <f>VLOOKUP(H4,A2:E27,5,0)</f>
+        <v>12.99</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1053,13 +1059,13 @@
       <c r="E9" s="7">
         <v>6.99</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1131,10 +1137,22 @@
       <c r="G12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="H12" s="23" t="str">
+        <f>VLOOKUP(G12,A2:B27,2,0)</f>
+        <v>Yellow</v>
+      </c>
+      <c r="I12" s="23" t="str">
+        <f>VLOOKUP(G12,A2:C27,3,0)</f>
+        <v>Tree</v>
+      </c>
+      <c r="J12" s="23" t="str">
+        <f>VLOOKUP(G12,A2:D27,4,0)</f>
+        <v>Alkaline</v>
+      </c>
+      <c r="K12" s="23" t="str">
+        <f>VLOOKUP(G12,A2:D27,4,0)</f>
+        <v>Alkaline</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -1188,14 +1206,14 @@
       <c r="E15" s="7">
         <v>4.99</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
@@ -1269,11 +1287,26 @@
       <c r="G18" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
+      <c r="H18" s="23" t="str">
+        <f>VLOOKUP("*"&amp;G18&amp;"*",A2:C27,1,0)</f>
+        <v>Tulip</v>
+      </c>
+      <c r="I18" s="23" t="str">
+        <f>VLOOKUP("*"&amp;G18&amp;"*",A2:B27,2,0)</f>
+        <v>Red</v>
+      </c>
+      <c r="J18" s="23" t="str">
+        <f>VLOOKUP("*"&amp; G18&amp;"*",A2:D27,3,0)</f>
+        <v>Flower</v>
+      </c>
+      <c r="K18" s="23" t="str">
+        <f>VLOOKUP("*"&amp;G18&amp;"*",A2:D27,4,0)</f>
+        <v>Neutral</v>
+      </c>
+      <c r="L18" s="23">
+        <f>VLOOKUP("*"&amp;G18&amp;"*",A2:E27,5,0)</f>
+        <v>0.79</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -1327,8 +1360,8 @@
       <c r="E21" s="9">
         <v>0.39</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
@@ -1346,8 +1379,8 @@
       <c r="E22" s="9">
         <v>3.99</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
@@ -1365,8 +1398,8 @@
       <c r="E23" s="8">
         <v>15.99</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="28"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
@@ -1384,8 +1417,8 @@
       <c r="E24" s="8">
         <v>3.99</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="28"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
@@ -1403,8 +1436,8 @@
       <c r="E25" s="8">
         <v>8.99</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="28"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
